--- a/사경/사경집 목록.xlsx
+++ b/사경/사경집 목록.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\book\사경\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86EF98C-8FC7-405E-8A63-65E4AD0195D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A04E88-40F0-4694-A5F0-7AA738036D4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -2203,7 +2203,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2267,7 +2267,9 @@
       <c r="D6" s="7">
         <v>44205</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="7">
+        <v>44214</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
